--- a/Data/input.xlsx
+++ b/Data/input.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive - Auburn University\auburn courses\advance st design\assignment 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prog\PyCharm\Anurag\PerRoad44AutomationTool\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="11_F25DC773A252ABDACC1048A689DB78885ADE58EF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{46410D08-667D-4D32-8413-6B513690C06D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE80D29-C131-45CC-9EA5-349DB0CFA63A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3264" yWindow="3264" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="350">
   <si>
     <t>sl no</t>
   </si>
@@ -71,84 +69,21 @@
     <t>layer 1</t>
   </si>
   <si>
-    <t>material type</t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
-    <t>grade upper</t>
-  </si>
-  <si>
-    <t>grade lower</t>
-  </si>
-  <si>
-    <t>modulus</t>
-  </si>
-  <si>
-    <t>poisons ratio</t>
-  </si>
-  <si>
-    <t>thickness</t>
-  </si>
-  <si>
-    <t>variablity</t>
-  </si>
-  <si>
-    <t>distribution type</t>
-  </si>
-  <si>
     <t>log normal</t>
   </si>
   <si>
-    <t>coefficient of variation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thickness variablity </t>
-  </si>
-  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>these are the inputs I aready entered before recording :p</t>
-  </si>
-  <si>
-    <t>this complete set is like for summer tab</t>
-  </si>
-  <si>
-    <t>performance criteria</t>
-  </si>
-  <si>
-    <t>position top</t>
-  </si>
-  <si>
-    <t>criteria</t>
-  </si>
-  <si>
     <t>vertical stress</t>
   </si>
   <si>
-    <t>threshold</t>
-  </si>
-  <si>
-    <t>target percentile</t>
-  </si>
-  <si>
-    <t>position medium</t>
-  </si>
-  <si>
     <t>vertical strain</t>
   </si>
   <si>
-    <t>transfer function box</t>
-  </si>
-  <si>
-    <t>k1</t>
-  </si>
-  <si>
-    <t>k2</t>
-  </si>
-  <si>
     <t>layer 3</t>
   </si>
   <si>
@@ -231,6 +166,921 @@
   </si>
   <si>
     <t>if some error click yes</t>
+  </si>
+  <si>
+    <t>layer 1 summer</t>
+  </si>
+  <si>
+    <t>material type layer 1 summer</t>
+  </si>
+  <si>
+    <t>grade upper layer 1 summer</t>
+  </si>
+  <si>
+    <t>grade lower layer 1 summer</t>
+  </si>
+  <si>
+    <t>modulus layer 1 summer</t>
+  </si>
+  <si>
+    <t>poisons ratio layer 1 summer</t>
+  </si>
+  <si>
+    <t>thickness layer 1 summer</t>
+  </si>
+  <si>
+    <t>variablity layer 1 summer</t>
+  </si>
+  <si>
+    <t>distribution type layer 1 summer</t>
+  </si>
+  <si>
+    <t>coefficient of variation layer 1 summer</t>
+  </si>
+  <si>
+    <t>thickness variablity layer 1 summer</t>
+  </si>
+  <si>
+    <t>performance criteria layer 1 summer</t>
+  </si>
+  <si>
+    <t>position top layer 1 summer</t>
+  </si>
+  <si>
+    <t>k1 layer 1 summer</t>
+  </si>
+  <si>
+    <t>k2 layer 1 summer</t>
+  </si>
+  <si>
+    <t>transfer function box layer 1 summer</t>
+  </si>
+  <si>
+    <t>target percentile layer 1 summer</t>
+  </si>
+  <si>
+    <t>threshold layer 1 summer</t>
+  </si>
+  <si>
+    <t>criteria layer 1 summer</t>
+  </si>
+  <si>
+    <t>position medium layer 1 summer</t>
+  </si>
+  <si>
+    <t>layer 2 summer</t>
+  </si>
+  <si>
+    <t>material type layer 2 summer</t>
+  </si>
+  <si>
+    <t>grade upper layer 2 summer</t>
+  </si>
+  <si>
+    <t>grade lower layer 2 summer</t>
+  </si>
+  <si>
+    <t>modulus layer 2 summer</t>
+  </si>
+  <si>
+    <t>poisons ratio layer 2 summer</t>
+  </si>
+  <si>
+    <t>thickness layer 2 summer</t>
+  </si>
+  <si>
+    <t>variablity layer 2 summer</t>
+  </si>
+  <si>
+    <t>distribution type layer 2 summer</t>
+  </si>
+  <si>
+    <t>coefficient of variation layer 2 summer</t>
+  </si>
+  <si>
+    <t>thickness variablity  layer 2 summer</t>
+  </si>
+  <si>
+    <t>performance criteria layer 2 summer</t>
+  </si>
+  <si>
+    <t>position top layer 2 summer</t>
+  </si>
+  <si>
+    <t>criteria layer 2 summer</t>
+  </si>
+  <si>
+    <t>threshold layer 2 summer</t>
+  </si>
+  <si>
+    <t>target percentile layer 2 summer</t>
+  </si>
+  <si>
+    <t>position medium layer 2 summer</t>
+  </si>
+  <si>
+    <t>transfer function box layer 2 summer</t>
+  </si>
+  <si>
+    <t>k1 layer 2 summer</t>
+  </si>
+  <si>
+    <t>k2 layer 2 summer</t>
+  </si>
+  <si>
+    <t>material type layer 3 summer</t>
+  </si>
+  <si>
+    <t>layer 3 summer</t>
+  </si>
+  <si>
+    <t>grade upper layer 3 summer</t>
+  </si>
+  <si>
+    <t>grade lower layer 3 summer</t>
+  </si>
+  <si>
+    <t>modulus layer 3 summer</t>
+  </si>
+  <si>
+    <t>poisons ratio layer 3 summer</t>
+  </si>
+  <si>
+    <t>thickness layer 3 summer</t>
+  </si>
+  <si>
+    <t>variablity layer 3 summer</t>
+  </si>
+  <si>
+    <t>distribution type layer 3 summer</t>
+  </si>
+  <si>
+    <t>coefficient of variation layer 3 summer</t>
+  </si>
+  <si>
+    <t>thickness variablity layer 3 summer</t>
+  </si>
+  <si>
+    <t>performance criteria layer 3 summer</t>
+  </si>
+  <si>
+    <t>target percentile layer 3 summer</t>
+  </si>
+  <si>
+    <t>threshold layer 3 summer</t>
+  </si>
+  <si>
+    <t>criteria layer 3 summer</t>
+  </si>
+  <si>
+    <t>position medium layer 3 summer</t>
+  </si>
+  <si>
+    <t>position top layer 3 summer</t>
+  </si>
+  <si>
+    <t>transfer function box layer 3 summer</t>
+  </si>
+  <si>
+    <t>k1 layer 3 summer</t>
+  </si>
+  <si>
+    <t>k2 layer 3 summer</t>
+  </si>
+  <si>
+    <t>layer 1 fall</t>
+  </si>
+  <si>
+    <t>material type layer 1 fall</t>
+  </si>
+  <si>
+    <t>grade upper layer 1 fall</t>
+  </si>
+  <si>
+    <t>grade lower layer 1 fall</t>
+  </si>
+  <si>
+    <t>modulus layer 1 fall</t>
+  </si>
+  <si>
+    <t>poisons ratio layer 1 fall</t>
+  </si>
+  <si>
+    <t>thickness layer 1 fall</t>
+  </si>
+  <si>
+    <t>variablity layer 1 fall</t>
+  </si>
+  <si>
+    <t>distribution type layer 1 fall</t>
+  </si>
+  <si>
+    <t>coefficient of variation layer 1 fall</t>
+  </si>
+  <si>
+    <t>thickness variablity layer 1 fall</t>
+  </si>
+  <si>
+    <t>performance criteria layer 1 fall</t>
+  </si>
+  <si>
+    <t>position top layer 1 fall</t>
+  </si>
+  <si>
+    <t>criteria layer 1 fall</t>
+  </si>
+  <si>
+    <t>threshold layer 1 fall</t>
+  </si>
+  <si>
+    <t>target percentile layer 1 fall</t>
+  </si>
+  <si>
+    <t>position medium layer 1 fall</t>
+  </si>
+  <si>
+    <t>transfer function box layer 1 fall</t>
+  </si>
+  <si>
+    <t>k1 layer 1 fall</t>
+  </si>
+  <si>
+    <t>k2 layer 1 fall</t>
+  </si>
+  <si>
+    <t>layer 2 fall</t>
+  </si>
+  <si>
+    <t>material type layer 2 fall</t>
+  </si>
+  <si>
+    <t>grade upper layer 2 fall</t>
+  </si>
+  <si>
+    <t>grade lower layer 2 fall</t>
+  </si>
+  <si>
+    <t>modulus layer 2 fall</t>
+  </si>
+  <si>
+    <t>poisons ratio layer 2 fall</t>
+  </si>
+  <si>
+    <t>thickness layer 2 fall</t>
+  </si>
+  <si>
+    <t>variablity layer 2 fall</t>
+  </si>
+  <si>
+    <t>distribution type layer 2 fall</t>
+  </si>
+  <si>
+    <t>coefficient of variation layer 2 fall</t>
+  </si>
+  <si>
+    <t>thickness variablity  layer 2 fall</t>
+  </si>
+  <si>
+    <t>performance criteria layer 2 fall</t>
+  </si>
+  <si>
+    <t>class 5</t>
+  </si>
+  <si>
+    <t>class 6</t>
+  </si>
+  <si>
+    <t>class 7</t>
+  </si>
+  <si>
+    <t>class 8</t>
+  </si>
+  <si>
+    <t>class 9</t>
+  </si>
+  <si>
+    <t>class 10</t>
+  </si>
+  <si>
+    <t>class 11</t>
+  </si>
+  <si>
+    <t>class 12</t>
+  </si>
+  <si>
+    <t>class 13</t>
+  </si>
+  <si>
+    <t>position top layer 2 fall</t>
+  </si>
+  <si>
+    <t>criteria layer 2 fall</t>
+  </si>
+  <si>
+    <t>threshold layer 2 fall</t>
+  </si>
+  <si>
+    <t>target percentile layer 2 fall</t>
+  </si>
+  <si>
+    <t>position medium layer 2 fall</t>
+  </si>
+  <si>
+    <t>transfer function box layer 2 fall</t>
+  </si>
+  <si>
+    <t>k1 layer 2 fall</t>
+  </si>
+  <si>
+    <t>k2 layer 2 fall</t>
+  </si>
+  <si>
+    <t>layer 3 fall</t>
+  </si>
+  <si>
+    <t>material type layer 3 fall</t>
+  </si>
+  <si>
+    <t>grade upper layer 3 fall</t>
+  </si>
+  <si>
+    <t>grade lower layer 3 fall</t>
+  </si>
+  <si>
+    <t>modulus layer 3 fall</t>
+  </si>
+  <si>
+    <t>poisons ratio layer 3 fall</t>
+  </si>
+  <si>
+    <t>thickness layer 3 fall</t>
+  </si>
+  <si>
+    <t>variablity layer 3 fall</t>
+  </si>
+  <si>
+    <t>distribution type layer 3 fall</t>
+  </si>
+  <si>
+    <t>coefficient of variation layer 3 fall</t>
+  </si>
+  <si>
+    <t>thickness variablity layer 3 fall</t>
+  </si>
+  <si>
+    <t>performance criteria layer 3 fall</t>
+  </si>
+  <si>
+    <t>position top layer 3 fall</t>
+  </si>
+  <si>
+    <t>criteria layer 3 fall</t>
+  </si>
+  <si>
+    <t>threshold layer 3 fall</t>
+  </si>
+  <si>
+    <t>target percentile layer 3 fall</t>
+  </si>
+  <si>
+    <t>position medium layer 3 fall</t>
+  </si>
+  <si>
+    <t>transfer function box layer 3 fall</t>
+  </si>
+  <si>
+    <t>k1 layer 3 fall</t>
+  </si>
+  <si>
+    <t>k2 layer 3 fall</t>
+  </si>
+  <si>
+    <t>layer 1 winter</t>
+  </si>
+  <si>
+    <t>material type  layer 1 winter</t>
+  </si>
+  <si>
+    <t>grade upper layer 1 winter</t>
+  </si>
+  <si>
+    <t>layer 2 winter</t>
+  </si>
+  <si>
+    <t>grade lower layer 1 winter</t>
+  </si>
+  <si>
+    <t>modulus layer 1 winter</t>
+  </si>
+  <si>
+    <t>poisons ratio layer 1 winter</t>
+  </si>
+  <si>
+    <t>thickness layer 1 winter</t>
+  </si>
+  <si>
+    <t>variablity layer 1 winter</t>
+  </si>
+  <si>
+    <t>distribution type layer 1 winter</t>
+  </si>
+  <si>
+    <t>coefficient of variation layer 1 winter</t>
+  </si>
+  <si>
+    <t>thickness variablity  layer 1 winter</t>
+  </si>
+  <si>
+    <t>performance criteria layer 1 winter</t>
+  </si>
+  <si>
+    <t>position top layer 1 winter</t>
+  </si>
+  <si>
+    <t>criteria layer 1 winter</t>
+  </si>
+  <si>
+    <t>threshold layer 1 winter</t>
+  </si>
+  <si>
+    <t>target percentile layer 1 winter</t>
+  </si>
+  <si>
+    <t>position medium layer 1 winter</t>
+  </si>
+  <si>
+    <t>transfer function box layer 1 winter</t>
+  </si>
+  <si>
+    <t>k1 layer 1 winter</t>
+  </si>
+  <si>
+    <t>k2 layer 1 winter</t>
+  </si>
+  <si>
+    <t>material type layer 2 winter</t>
+  </si>
+  <si>
+    <t>grade upper layer 2 winter</t>
+  </si>
+  <si>
+    <t>grade lower layer 2 winter</t>
+  </si>
+  <si>
+    <t>modulus layer 2 winter</t>
+  </si>
+  <si>
+    <t>poisons ratio layer 2 winter</t>
+  </si>
+  <si>
+    <t>thickness layer 2 winter</t>
+  </si>
+  <si>
+    <t>variablity layer 2 winter</t>
+  </si>
+  <si>
+    <t>distribution type layer 2 winter</t>
+  </si>
+  <si>
+    <t>coefficient of variation layer 2 winter</t>
+  </si>
+  <si>
+    <t>thickness variablity  layer 2 winter</t>
+  </si>
+  <si>
+    <t>performance criteria layer 2 winter</t>
+  </si>
+  <si>
+    <t>position top layer 2 winter</t>
+  </si>
+  <si>
+    <t>criteria layer 2 winter</t>
+  </si>
+  <si>
+    <t>threshold layer 2 winter</t>
+  </si>
+  <si>
+    <t>target percentile layer 2 winter</t>
+  </si>
+  <si>
+    <t>position medium layer 2 winter</t>
+  </si>
+  <si>
+    <t>transfer function box layer 2 winter</t>
+  </si>
+  <si>
+    <t>k1 layer 2 winter</t>
+  </si>
+  <si>
+    <t>k2 layer 2 winter</t>
+  </si>
+  <si>
+    <t>layer 3 winter</t>
+  </si>
+  <si>
+    <t>layer 1 spring2</t>
+  </si>
+  <si>
+    <t>material type layer 3 winter</t>
+  </si>
+  <si>
+    <t>grade upper layer 3 winter</t>
+  </si>
+  <si>
+    <t>grade lower layer 3 winter</t>
+  </si>
+  <si>
+    <t>modulus layer 3 winter</t>
+  </si>
+  <si>
+    <t>poisons ratio layer 3 winter</t>
+  </si>
+  <si>
+    <t>thickness layer 3 winter</t>
+  </si>
+  <si>
+    <t>variablity layer 3 winter</t>
+  </si>
+  <si>
+    <t>distribution type layer 3 winter</t>
+  </si>
+  <si>
+    <t>coefficient of variation layer 3 winter</t>
+  </si>
+  <si>
+    <t>thickness variablity  layer 3 winter</t>
+  </si>
+  <si>
+    <t>performance criteria layer 3 winter</t>
+  </si>
+  <si>
+    <t>position top layer 3 winter</t>
+  </si>
+  <si>
+    <t>criteria layer 3 winter</t>
+  </si>
+  <si>
+    <t>threshold layer 3 winter</t>
+  </si>
+  <si>
+    <t>target percentile layer 3 winter</t>
+  </si>
+  <si>
+    <t>position medium layer 3 winter</t>
+  </si>
+  <si>
+    <t>transfer function box layer 3 winter</t>
+  </si>
+  <si>
+    <t>k1 layer 3 winter</t>
+  </si>
+  <si>
+    <t>k2 layer 3 winter</t>
+  </si>
+  <si>
+    <t>material type layer 1 spring</t>
+  </si>
+  <si>
+    <t>grade upper layer 1 spring</t>
+  </si>
+  <si>
+    <t>grade lower layer 1 spring</t>
+  </si>
+  <si>
+    <t>modulus layer 1 spring</t>
+  </si>
+  <si>
+    <t>poisons ratio layer 1 spring</t>
+  </si>
+  <si>
+    <t>thickness layer 1 spring</t>
+  </si>
+  <si>
+    <t>variablity layer 1 spring</t>
+  </si>
+  <si>
+    <t>distribution type layer 1 spring</t>
+  </si>
+  <si>
+    <t>coefficient of variation layer 1 spring</t>
+  </si>
+  <si>
+    <t>thickness variablity  layer 1 spring</t>
+  </si>
+  <si>
+    <t>performance criteria layer 1 spring</t>
+  </si>
+  <si>
+    <t>position top layer 1 spring</t>
+  </si>
+  <si>
+    <t>criteria layer 1 spring</t>
+  </si>
+  <si>
+    <t>threshold layer 1 spring</t>
+  </si>
+  <si>
+    <t>target percentile layer 1 spring</t>
+  </si>
+  <si>
+    <t>position medium layer 1 spring</t>
+  </si>
+  <si>
+    <t>transfer function box layer 1 spring</t>
+  </si>
+  <si>
+    <t>k1 layer 1 spring</t>
+  </si>
+  <si>
+    <t>k2 layer 1 spring</t>
+  </si>
+  <si>
+    <t>material type layer 2 spring</t>
+  </si>
+  <si>
+    <t>grade upper layer 2 spring</t>
+  </si>
+  <si>
+    <t>grade lower layer 2 spring</t>
+  </si>
+  <si>
+    <t>modulus layer 2 spring</t>
+  </si>
+  <si>
+    <t>poisons ratio layer 2 spring</t>
+  </si>
+  <si>
+    <t>thickness layer 2 spring</t>
+  </si>
+  <si>
+    <t>variablity layer 2 spring</t>
+  </si>
+  <si>
+    <t>distribution type layer 2 spring</t>
+  </si>
+  <si>
+    <t>coefficient of variation layer 2 spring</t>
+  </si>
+  <si>
+    <t>thickness variablity  layer 2 spring</t>
+  </si>
+  <si>
+    <t>performance criteria layer 2 spring</t>
+  </si>
+  <si>
+    <t>position top layer 2 spring</t>
+  </si>
+  <si>
+    <t>criteria layer 2 spring</t>
+  </si>
+  <si>
+    <t>threshold layer 2 spring</t>
+  </si>
+  <si>
+    <t>target percentile layer 2 spring</t>
+  </si>
+  <si>
+    <t>position medium layer 2 spring</t>
+  </si>
+  <si>
+    <t>transfer function box layer 2 spring</t>
+  </si>
+  <si>
+    <t>k1 layer 2 spring</t>
+  </si>
+  <si>
+    <t>k2 layer 2 spring</t>
+  </si>
+  <si>
+    <t>material type layer 3 spring</t>
+  </si>
+  <si>
+    <t>grade upper layer 3 spring</t>
+  </si>
+  <si>
+    <t>grade lower layer 3 spring</t>
+  </si>
+  <si>
+    <t>modulus layer 3 spring</t>
+  </si>
+  <si>
+    <t>poisons ratio layer 3 spring</t>
+  </si>
+  <si>
+    <t>thickness layer 3 spring</t>
+  </si>
+  <si>
+    <t>variablity layer 3 spring</t>
+  </si>
+  <si>
+    <t>distribution type layer 3 spring</t>
+  </si>
+  <si>
+    <t>coefficient of variation layer 3 spring</t>
+  </si>
+  <si>
+    <t>thickness variablity  layer 3 spring</t>
+  </si>
+  <si>
+    <t>performance criteria layer 3 spring</t>
+  </si>
+  <si>
+    <t>position top layer 3 spring</t>
+  </si>
+  <si>
+    <t>criteria layer 3 spring</t>
+  </si>
+  <si>
+    <t>threshold layer 3 spring</t>
+  </si>
+  <si>
+    <t>target percentile layer 3 spring</t>
+  </si>
+  <si>
+    <t>position medium layer 3 spring</t>
+  </si>
+  <si>
+    <t>transfer function box layer 3 spring</t>
+  </si>
+  <si>
+    <t>k1 layer 3 spring</t>
+  </si>
+  <si>
+    <t>k2 layer 3 spring</t>
+  </si>
+  <si>
+    <t>material type layer 1 spring2</t>
+  </si>
+  <si>
+    <t>grade upper layer 1 spring2</t>
+  </si>
+  <si>
+    <t>grade lower layer 1 spring2</t>
+  </si>
+  <si>
+    <t>modulus layer 1 spring2</t>
+  </si>
+  <si>
+    <t>poisons ratio layer 1 spring2</t>
+  </si>
+  <si>
+    <t>thickness layer 1 spring2</t>
+  </si>
+  <si>
+    <t>variablity layer 1 spring2</t>
+  </si>
+  <si>
+    <t>distribution type layer 1 spring2</t>
+  </si>
+  <si>
+    <t>coefficient of variation layer 1 spring2</t>
+  </si>
+  <si>
+    <t>thickness variablity  layer 1 spring2</t>
+  </si>
+  <si>
+    <t>performance criteria layer 1 spring2</t>
+  </si>
+  <si>
+    <t>position top layer 1 spring2</t>
+  </si>
+  <si>
+    <t>criteria layer 1 spring2</t>
+  </si>
+  <si>
+    <t>threshold layer 1 spring2</t>
+  </si>
+  <si>
+    <t>target percentile layer 1 spring2</t>
+  </si>
+  <si>
+    <t>position medium layer 1 spring2</t>
+  </si>
+  <si>
+    <t>transfer function box layer 1 spring2</t>
+  </si>
+  <si>
+    <t>k1 layer 1 spring2</t>
+  </si>
+  <si>
+    <t>k2 layer 1 spring2</t>
+  </si>
+  <si>
+    <t>layer 2 spring2</t>
+  </si>
+  <si>
+    <t>material type layer 2 spring2</t>
+  </si>
+  <si>
+    <t>grade upper layer 2 spring2</t>
+  </si>
+  <si>
+    <t>grade lower layer 2 spring2</t>
+  </si>
+  <si>
+    <t>modulus layer 2 spring2</t>
+  </si>
+  <si>
+    <t>poisons ratio layer 2 spring2</t>
+  </si>
+  <si>
+    <t>thickness layer 2 spring2</t>
+  </si>
+  <si>
+    <t>variablity layer 2 spring2</t>
+  </si>
+  <si>
+    <t>distribution type layer 2 spring2</t>
+  </si>
+  <si>
+    <t>coefficient of variation layer 2 spring2</t>
+  </si>
+  <si>
+    <t>thickness variablity  layer 2 spring2</t>
+  </si>
+  <si>
+    <t>performance criteria layer 2 spring2</t>
+  </si>
+  <si>
+    <t>position top layer 2 spring2</t>
+  </si>
+  <si>
+    <t>criteria layer 2 spring2</t>
+  </si>
+  <si>
+    <t>threshold layer 2 spring2</t>
+  </si>
+  <si>
+    <t>target percentile layer 2 spring2</t>
+  </si>
+  <si>
+    <t>position medium layer 2 spring2</t>
+  </si>
+  <si>
+    <t>transfer function box layer 2 spring2</t>
+  </si>
+  <si>
+    <t>k1 layer 2 spring2</t>
+  </si>
+  <si>
+    <t>k2 layer 2 spring2</t>
+  </si>
+  <si>
+    <t>material type layer 3 spring2</t>
+  </si>
+  <si>
+    <t>grade upper layer 3 spring2</t>
+  </si>
+  <si>
+    <t>grade lower layer 3 spring2</t>
+  </si>
+  <si>
+    <t>modulus layer 3 spring2</t>
+  </si>
+  <si>
+    <t>poisons ratio layer 3 spring2</t>
+  </si>
+  <si>
+    <t>thickness layer 3 spring2</t>
+  </si>
+  <si>
+    <t>variablity layer 3 spring2</t>
+  </si>
+  <si>
+    <t>distribution type layer 3 spring2</t>
+  </si>
+  <si>
+    <t>coefficient of variation layer 3 spring2</t>
+  </si>
+  <si>
+    <t>thickness variablity  layer 3 spring2</t>
+  </si>
+  <si>
+    <t>performance criteria layer 3 spring2</t>
+  </si>
+  <si>
+    <t>position top layer 3 spring2</t>
+  </si>
+  <si>
+    <t>criteria layer 3 spring2</t>
+  </si>
+  <si>
+    <t>threshold layer 3 spring2</t>
+  </si>
+  <si>
+    <t>target percentile layer 3 spring2</t>
+  </si>
+  <si>
+    <t>position medium layer 3 spring2</t>
+  </si>
+  <si>
+    <t>transfer function box layer 3 spring2</t>
+  </si>
+  <si>
+    <t>k1 layer 3 spring2</t>
+  </si>
+  <si>
+    <t>k2 layer 3 spring2</t>
   </si>
 </sst>
 </file>
@@ -571,24 +1421,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H473"/>
+  <dimension ref="A1:E473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="D470" sqref="D470"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.5234375" customWidth="1"/>
-    <col min="4" max="4" width="14.734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -605,7 +1455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -622,7 +1472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -640,7 +1490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>3</v>
@@ -658,7 +1508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -676,7 +1526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -694,7 +1544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -712,7 +1562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -729,17 +1579,14 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -748,40 +1595,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>76</v>
@@ -792,17 +1639,14 @@
       <c r="E14">
         <v>76</v>
       </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>-22</v>
@@ -814,13 +1658,13 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>550000</v>
@@ -832,31 +1676,31 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C17">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D17">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E17">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -868,46 +1712,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C22">
         <v>30</v>
@@ -919,31 +1763,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -955,55 +1799,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>545</v>
@@ -1015,13 +1859,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C30">
         <v>50</v>
@@ -1033,40 +1877,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C33">
         <v>545</v>
@@ -1078,13 +1922,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C34">
         <v>50</v>
@@ -1096,19 +1940,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -1120,13 +1964,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1138,13 +1982,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1156,46 +2000,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
         <v>12</v>
       </c>
-      <c r="C41" t="s">
-        <v>13</v>
-      </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C42">
         <v>76</v>
@@ -1207,13 +2051,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C43">
         <v>-22</v>
@@ -1225,13 +2069,13 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="C44">
         <v>550000</v>
@@ -1243,31 +2087,31 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C45">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D45">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E45">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C46">
         <v>10</v>
@@ -1279,46 +2123,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="C50">
         <v>30</v>
@@ -1330,31 +2174,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1366,55 +2210,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C57">
         <v>545</v>
@@ -1426,13 +2270,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C58">
         <v>50</v>
@@ -1444,40 +2288,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C61">
         <v>545</v>
@@ -1489,13 +2333,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C62">
         <v>50</v>
@@ -1507,19 +2351,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
@@ -1531,13 +2375,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1549,13 +2393,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1567,46 +2411,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" ref="A69:A132" si="1">A68+1</f>
         <v>67</v>
       </c>
       <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" t="s">
         <v>12</v>
       </c>
-      <c r="C69" t="s">
-        <v>13</v>
-      </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="C70">
         <v>76</v>
@@ -1618,13 +2462,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C71">
         <v>-22</v>
@@ -1636,13 +2480,13 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C72">
         <v>550000</v>
@@ -1654,31 +2498,31 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C73">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D73">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E73">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C74">
         <v>10</v>
@@ -1690,46 +2534,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C78">
         <v>30</v>
@@ -1741,31 +2585,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1777,55 +2621,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E84" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C85">
         <v>545</v>
@@ -1837,13 +2681,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="C86">
         <v>50</v>
@@ -1855,40 +2699,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C89">
         <v>545</v>
@@ -1900,13 +2744,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="C90">
         <v>50</v>
@@ -1918,19 +2762,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
@@ -1942,13 +2786,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1960,13 +2804,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1978,13 +2822,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -1993,40 +2837,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" t="s">
         <v>12</v>
       </c>
-      <c r="C98" t="s">
-        <v>13</v>
-      </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C99">
         <v>76</v>
@@ -2038,13 +2882,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C100">
         <v>-22</v>
@@ -2056,13 +2900,13 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="C101">
         <v>550000</v>
@@ -2074,31 +2918,31 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="C102">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D102">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E102">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C103">
         <v>10</v>
@@ -2110,46 +2954,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="C107">
         <v>30</v>
@@ -2161,31 +3005,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E108" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="C109">
         <v>5</v>
@@ -2197,55 +3041,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E113" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C114">
         <v>545</v>
@@ -2257,13 +3101,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="C115">
         <v>50</v>
@@ -2275,40 +3119,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C118">
         <v>545</v>
@@ -2320,13 +3164,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="C119">
         <v>50</v>
@@ -2338,19 +3182,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
@@ -2362,13 +3206,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2380,13 +3224,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2398,46 +3242,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" t="s">
         <v>12</v>
       </c>
-      <c r="C126" t="s">
-        <v>13</v>
-      </c>
       <c r="D126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="C127">
         <v>76</v>
@@ -2449,13 +3293,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="C128">
         <v>-22</v>
@@ -2467,13 +3311,13 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="C129">
         <v>550000</v>
@@ -2485,31 +3329,31 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="C130">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D130">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E130">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="C131">
         <v>10</v>
@@ -2521,46 +3365,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <f t="shared" ref="A133:A196" si="2">A132+1</f>
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D134" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="C135">
         <v>30</v>
@@ -2572,31 +3416,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E136" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="C137">
         <v>5</v>
@@ -2608,55 +3452,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E141" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="C142">
         <v>545</v>
@@ -2668,13 +3512,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="C143">
         <v>50</v>
@@ -2686,40 +3530,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="C146">
         <v>545</v>
@@ -2731,13 +3575,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="C147">
         <v>50</v>
@@ -2749,19 +3593,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="C149" t="s">
         <v>10</v>
@@ -2773,13 +3617,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2791,13 +3635,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2809,46 +3653,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="B154" t="s">
+        <v>155</v>
+      </c>
+      <c r="C154" t="s">
         <v>12</v>
       </c>
-      <c r="C154" t="s">
-        <v>13</v>
-      </c>
       <c r="D154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E154" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="C155">
         <v>76</v>
@@ -2860,13 +3704,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="C156">
         <v>-22</v>
@@ -2878,13 +3722,13 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="C157">
         <v>550000</v>
@@ -2896,31 +3740,31 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="C158">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D158">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E158">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="C159">
         <v>10</v>
@@ -2932,46 +3776,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D162" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E162" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="C163">
         <v>30</v>
@@ -2983,31 +3827,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E164" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="C165">
         <v>5</v>
@@ -3019,55 +3863,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="C169" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D169" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E169" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="C170">
         <v>545</v>
@@ -3079,13 +3923,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="C171">
         <v>50</v>
@@ -3097,40 +3941,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="C173" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E173" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="C174">
         <v>545</v>
@@ -3142,13 +3986,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="C175">
         <v>50</v>
@@ -3160,19 +4004,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="C177" t="s">
         <v>10</v>
@@ -3184,13 +4028,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3202,13 +4046,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3220,13 +4064,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -3235,40 +4079,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="B183" t="s">
+        <v>175</v>
+      </c>
+      <c r="C183" t="s">
         <v>12</v>
       </c>
-      <c r="C183" t="s">
-        <v>13</v>
-      </c>
       <c r="D183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E183" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="C184">
         <v>76</v>
@@ -3280,13 +4124,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="C185">
         <v>-22</v>
@@ -3298,13 +4142,13 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="C186">
         <v>550000</v>
@@ -3316,31 +4160,31 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="C187">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D187">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E187">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="C188">
         <v>10</v>
@@ -3352,46 +4196,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="C191" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D191" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E191" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="C192">
         <v>30</v>
@@ -3403,31 +4247,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="C193" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D193" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E193" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="C194">
         <v>5</v>
@@ -3439,55 +4283,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <f t="shared" si="2"/>
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <f t="shared" ref="A197:A260" si="3">A196+1</f>
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="C198" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D198" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E198" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="C199">
         <v>545</v>
@@ -3499,13 +4343,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="C200">
         <v>50</v>
@@ -3517,40 +4361,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="C202" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E202" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="C203">
         <v>545</v>
@@ -3562,13 +4406,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="C204">
         <v>50</v>
@@ -3580,19 +4424,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="C206" t="s">
         <v>10</v>
@@ -3604,13 +4448,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -3622,13 +4466,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -3640,46 +4484,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="B211" t="s">
+        <v>195</v>
+      </c>
+      <c r="C211" t="s">
         <v>12</v>
       </c>
-      <c r="C211" t="s">
-        <v>13</v>
-      </c>
       <c r="D211" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E211" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="C212">
         <v>76</v>
@@ -3691,13 +4535,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="C213">
         <v>-22</v>
@@ -3709,13 +4553,13 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="C214">
         <v>550000</v>
@@ -3727,31 +4571,31 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="C215">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D215">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E215">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="C216">
         <v>10</v>
@@ -3763,46 +4607,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="C219" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D219" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E219" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="C220">
         <v>30</v>
@@ -3814,31 +4658,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="C221" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D221" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E221" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="C222">
         <v>5</v>
@@ -3850,55 +4694,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <f t="shared" si="3"/>
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="C226" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D226" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E226" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="C227">
         <v>545</v>
@@ -3910,13 +4754,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="C228">
         <v>50</v>
@@ -3928,40 +4772,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
         <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="C230" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D230" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E230" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="C231">
         <v>545</v>
@@ -3973,13 +4817,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="C232">
         <v>50</v>
@@ -3991,19 +4835,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="C234" t="s">
         <v>10</v>
@@ -4015,13 +4859,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>36</v>
+        <v>212</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -4033,13 +4877,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4051,46 +4895,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
       <c r="B239" t="s">
+        <v>216</v>
+      </c>
+      <c r="C239" t="s">
         <v>12</v>
       </c>
-      <c r="C239" t="s">
-        <v>13</v>
-      </c>
       <c r="D239" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E239" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="C240">
         <v>76</v>
@@ -4102,13 +4946,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c r="C241">
         <v>-22</v>
@@ -4120,13 +4964,13 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="C242">
         <v>550000</v>
@@ -4138,31 +4982,31 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="C243">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D243">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E243">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="C244">
         <v>10</v>
@@ -4174,46 +5018,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <f t="shared" si="3"/>
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="C247" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D247" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E247" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="C248">
         <v>30</v>
@@ -4225,31 +5069,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="C249" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D249" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E249" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="C250">
         <v>5</v>
@@ -4261,55 +5105,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <f t="shared" si="3"/>
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="C254" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D254" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E254" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="C255">
         <v>545</v>
@@ -4321,13 +5165,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="C256">
         <v>50</v>
@@ -4339,40 +5183,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="C258" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D258" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E258" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
         <f t="shared" si="3"/>
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="C259">
         <v>545</v>
@@ -4384,13 +5228,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
         <f t="shared" si="3"/>
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="C260">
         <v>50</v>
@@ -4402,19 +5246,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
         <f t="shared" ref="A261:A324" si="4">A260+1</f>
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="C262" t="s">
         <v>10</v>
@@ -4426,13 +5270,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
         <f t="shared" si="4"/>
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4444,13 +5288,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
         <f t="shared" si="4"/>
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -4462,13 +5306,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265">
         <f t="shared" si="4"/>
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -4477,7 +5321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -4486,31 +5330,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
         <f t="shared" si="4"/>
         <v>266</v>
       </c>
       <c r="B268" t="s">
+        <v>235</v>
+      </c>
+      <c r="C268" t="s">
         <v>12</v>
       </c>
-      <c r="C268" t="s">
-        <v>13</v>
-      </c>
       <c r="D268" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E268" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
         <f t="shared" si="4"/>
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="C269">
         <v>76</v>
@@ -4522,13 +5366,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="C270">
         <v>-22</v>
@@ -4540,13 +5384,13 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="C271">
         <v>550000</v>
@@ -4558,31 +5402,31 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="C272">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D272">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E272">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <f t="shared" si="4"/>
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="C273">
         <v>10</v>
@@ -4594,46 +5438,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <f t="shared" si="4"/>
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="C276" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D276" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E276" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
         <f t="shared" si="4"/>
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="C277">
         <v>30</v>
@@ -4645,31 +5489,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="C278" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D278" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E278" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <f t="shared" si="4"/>
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="C279">
         <v>5</v>
@@ -4681,55 +5525,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <f t="shared" si="4"/>
         <v>278</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <f t="shared" si="4"/>
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <f t="shared" si="4"/>
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>29</v>
+        <v>247</v>
       </c>
       <c r="C283" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D283" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E283" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <f t="shared" si="4"/>
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="C284">
         <v>545</v>
@@ -4741,13 +5585,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
         <f t="shared" si="4"/>
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="C285">
         <v>50</v>
@@ -4759,40 +5603,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
         <f t="shared" si="4"/>
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
         <f t="shared" si="4"/>
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>29</v>
+        <v>247</v>
       </c>
       <c r="C287" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D287" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E287" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
         <f t="shared" si="4"/>
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="C288">
         <v>545</v>
@@ -4804,13 +5648,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <f t="shared" si="4"/>
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="C289">
         <v>50</v>
@@ -4822,19 +5666,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c r="C291" t="s">
         <v>10</v>
@@ -4846,13 +5690,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -4864,13 +5708,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
         <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>37</v>
+        <v>253</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -4882,46 +5726,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
         <f t="shared" si="4"/>
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
         <f t="shared" si="4"/>
         <v>294</v>
       </c>
       <c r="B296" t="s">
+        <v>254</v>
+      </c>
+      <c r="C296" t="s">
         <v>12</v>
       </c>
-      <c r="C296" t="s">
-        <v>13</v>
-      </c>
       <c r="D296" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E296" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
         <f t="shared" si="4"/>
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="C297">
         <v>76</v>
@@ -4933,13 +5777,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298">
         <f t="shared" si="4"/>
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c r="C298">
         <v>-22</v>
@@ -4951,13 +5795,13 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299">
         <f t="shared" si="4"/>
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="C299">
         <v>550000</v>
@@ -4969,31 +5813,31 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300">
         <f t="shared" si="4"/>
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="C300">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D300">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E300">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301">
         <f t="shared" si="4"/>
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="C301">
         <v>10</v>
@@ -5005,46 +5849,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303">
         <f t="shared" si="4"/>
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304">
         <f t="shared" si="4"/>
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="C304" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D304" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E304" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305">
         <f t="shared" si="4"/>
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="C305">
         <v>30</v>
@@ -5056,31 +5900,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306">
         <f t="shared" si="4"/>
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="C306" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D306" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E306" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307">
         <f t="shared" si="4"/>
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="C307">
         <v>5</v>
@@ -5092,55 +5936,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308">
         <f t="shared" si="4"/>
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309">
         <f t="shared" si="4"/>
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310">
         <f t="shared" si="4"/>
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311">
         <f t="shared" si="4"/>
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="C311" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D311" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E311" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312">
         <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>31</v>
+        <v>267</v>
       </c>
       <c r="C312">
         <v>545</v>
@@ -5152,13 +5996,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313">
         <f t="shared" si="4"/>
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>32</v>
+        <v>268</v>
       </c>
       <c r="C313">
         <v>50</v>
@@ -5170,40 +6014,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314">
         <f t="shared" si="4"/>
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315">
         <f t="shared" si="4"/>
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="C315" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D315" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E315" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316">
         <f t="shared" si="4"/>
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>31</v>
+        <v>267</v>
       </c>
       <c r="C316">
         <v>545</v>
@@ -5215,13 +6059,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317">
         <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>32</v>
+        <v>268</v>
       </c>
       <c r="C317">
         <v>50</v>
@@ -5233,19 +6077,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318">
         <f t="shared" si="4"/>
         <v>316</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319">
         <f t="shared" si="4"/>
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="C319" t="s">
         <v>10</v>
@@ -5257,13 +6101,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320">
         <f t="shared" si="4"/>
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>36</v>
+        <v>271</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -5275,13 +6119,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321">
         <f t="shared" si="4"/>
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>37</v>
+        <v>272</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -5293,46 +6137,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322">
         <f t="shared" si="4"/>
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323">
         <f t="shared" si="4"/>
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324">
         <f t="shared" si="4"/>
         <v>322</v>
       </c>
       <c r="B324" t="s">
+        <v>273</v>
+      </c>
+      <c r="C324" t="s">
         <v>12</v>
       </c>
-      <c r="C324" t="s">
-        <v>13</v>
-      </c>
       <c r="D324" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E324" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325">
         <f t="shared" ref="A325:A388" si="5">A324+1</f>
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="C325">
         <v>76</v>
@@ -5344,13 +6188,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326">
         <f t="shared" si="5"/>
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c r="C326">
         <v>-22</v>
@@ -5362,13 +6206,13 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327">
         <f t="shared" si="5"/>
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="C327">
         <v>550000</v>
@@ -5380,31 +6224,31 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328">
         <f t="shared" si="5"/>
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>17</v>
+        <v>277</v>
       </c>
       <c r="C328">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D328">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E328">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329">
         <f t="shared" si="5"/>
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="C329">
         <v>10</v>
@@ -5416,46 +6260,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330">
         <f t="shared" si="5"/>
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331">
         <f t="shared" si="5"/>
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332">
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="C332" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D332" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E332" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333">
         <f t="shared" si="5"/>
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="C333">
         <v>30</v>
@@ -5467,31 +6311,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334">
         <f t="shared" si="5"/>
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>23</v>
+        <v>282</v>
       </c>
       <c r="C334" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D334" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E334" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335">
         <f t="shared" si="5"/>
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="C335">
         <v>5</v>
@@ -5503,55 +6347,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336">
         <f t="shared" si="5"/>
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337">
         <f t="shared" si="5"/>
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338">
         <f t="shared" si="5"/>
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339">
         <f t="shared" si="5"/>
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="C339" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D339" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E339" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340">
         <f t="shared" si="5"/>
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c r="C340">
         <v>545</v>
@@ -5563,13 +6407,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341">
         <f t="shared" si="5"/>
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c r="C341">
         <v>50</v>
@@ -5581,40 +6425,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342">
         <f t="shared" si="5"/>
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="C343" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D343" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E343" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344">
         <f t="shared" si="5"/>
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c r="C344">
         <v>545</v>
@@ -5626,13 +6470,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345">
         <f t="shared" si="5"/>
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c r="C345">
         <v>50</v>
@@ -5644,19 +6488,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346">
         <f t="shared" si="5"/>
         <v>344</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347">
         <f t="shared" si="5"/>
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>35</v>
+        <v>289</v>
       </c>
       <c r="C347" t="s">
         <v>10</v>
@@ -5668,13 +6512,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348">
         <f t="shared" si="5"/>
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>36</v>
+        <v>290</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -5686,13 +6530,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349">
         <f t="shared" si="5"/>
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -5704,55 +6548,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350">
         <f t="shared" si="5"/>
         <v>348</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351">
         <f t="shared" si="5"/>
         <v>349</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352">
         <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353">
         <f t="shared" si="5"/>
         <v>351</v>
       </c>
       <c r="B353" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C353" t="s">
         <v>12</v>
       </c>
-      <c r="C353" t="s">
-        <v>13</v>
-      </c>
       <c r="D353" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E353" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354">
         <f t="shared" si="5"/>
         <v>352</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="C354">
         <v>76</v>
@@ -5764,13 +6608,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355">
         <f t="shared" si="5"/>
         <v>353</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c r="C355">
         <v>-22</v>
@@ -5782,13 +6626,13 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356">
         <f t="shared" si="5"/>
         <v>354</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="C356">
         <v>550000</v>
@@ -5800,31 +6644,31 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357">
         <f t="shared" si="5"/>
         <v>355</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>17</v>
+        <v>296</v>
       </c>
       <c r="C357">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D357">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E357">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358">
         <f t="shared" si="5"/>
         <v>356</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>18</v>
+        <v>297</v>
       </c>
       <c r="C358">
         <v>10</v>
@@ -5836,47 +6680,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359">
         <f t="shared" si="5"/>
         <v>357</v>
       </c>
       <c r="B359" s="1"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360">
         <f t="shared" si="5"/>
         <v>358</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361">
         <f t="shared" si="5"/>
         <v>359</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="C361" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D361" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E361" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362">
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="C362">
         <v>30</v>
@@ -5888,31 +6732,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363">
         <f t="shared" si="5"/>
         <v>361</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>23</v>
+        <v>301</v>
       </c>
       <c r="C363" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D363" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E363" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364">
         <f t="shared" si="5"/>
         <v>362</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="C364">
         <v>5</v>
@@ -5924,56 +6768,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365">
         <f t="shared" si="5"/>
         <v>363</v>
       </c>
       <c r="B365" s="1"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366">
         <f t="shared" si="5"/>
         <v>364</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367">
         <f t="shared" si="5"/>
         <v>365</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368">
         <f t="shared" si="5"/>
         <v>366</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="C368" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D368" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E368" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369">
         <f t="shared" si="5"/>
         <v>367</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>31</v>
+        <v>305</v>
       </c>
       <c r="C369">
         <v>545</v>
@@ -5985,13 +6829,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370">
         <f t="shared" si="5"/>
         <v>368</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>32</v>
+        <v>306</v>
       </c>
       <c r="C370">
         <v>50</v>
@@ -6003,40 +6847,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371">
         <f t="shared" si="5"/>
         <v>369</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372">
         <f t="shared" si="5"/>
         <v>370</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="C372" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D372" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E372" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373">
         <f t="shared" si="5"/>
         <v>371</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>31</v>
+        <v>305</v>
       </c>
       <c r="C373">
         <v>545</v>
@@ -6048,13 +6892,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374">
         <f t="shared" si="5"/>
         <v>372</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>32</v>
+        <v>306</v>
       </c>
       <c r="C374">
         <v>50</v>
@@ -6066,20 +6910,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375">
         <f t="shared" si="5"/>
         <v>373</v>
       </c>
       <c r="B375" s="1"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376">
         <f t="shared" si="5"/>
         <v>374</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>35</v>
+        <v>308</v>
       </c>
       <c r="C376" t="s">
         <v>10</v>
@@ -6091,13 +6935,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377">
         <f t="shared" si="5"/>
         <v>375</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -6109,13 +6953,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378">
         <f t="shared" si="5"/>
         <v>376</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>37</v>
+        <v>310</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -6127,47 +6971,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379">
         <f t="shared" si="5"/>
         <v>377</v>
       </c>
       <c r="B379" s="1"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380">
         <f t="shared" si="5"/>
         <v>378</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381">
         <f t="shared" si="5"/>
         <v>379</v>
       </c>
       <c r="B381" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C381" t="s">
         <v>12</v>
       </c>
-      <c r="C381" t="s">
-        <v>13</v>
-      </c>
       <c r="D381" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E381" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382">
         <f t="shared" si="5"/>
         <v>380</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C382">
         <v>76</v>
@@ -6179,13 +7023,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383">
         <f t="shared" si="5"/>
         <v>381</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="C383">
         <v>-22</v>
@@ -6197,13 +7041,13 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384">
         <f t="shared" si="5"/>
         <v>382</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>16</v>
+        <v>315</v>
       </c>
       <c r="C384">
         <v>550000</v>
@@ -6215,31 +7059,31 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385">
         <f t="shared" si="5"/>
         <v>383</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>17</v>
+        <v>316</v>
       </c>
       <c r="C385">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D385">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E385">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386">
         <f t="shared" si="5"/>
         <v>384</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>18</v>
+        <v>317</v>
       </c>
       <c r="C386">
         <v>10</v>
@@ -6251,47 +7095,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387">
         <f t="shared" si="5"/>
         <v>385</v>
       </c>
       <c r="B387" s="1"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388">
         <f t="shared" si="5"/>
         <v>386</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389">
         <f t="shared" ref="A389:A452" si="6">A388+1</f>
         <v>387</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="C389" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D389" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E389" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390">
         <f t="shared" si="6"/>
         <v>388</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="C390">
         <v>30</v>
@@ -6303,31 +7147,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391">
         <f t="shared" si="6"/>
         <v>389</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>23</v>
+        <v>321</v>
       </c>
       <c r="C391" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D391" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E391" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392">
         <f t="shared" si="6"/>
         <v>390</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="C392">
         <v>5</v>
@@ -6339,56 +7183,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393">
         <f t="shared" si="6"/>
         <v>391</v>
       </c>
       <c r="B393" s="1"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394">
         <f t="shared" si="6"/>
         <v>392</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395">
         <f t="shared" si="6"/>
         <v>393</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396">
         <f t="shared" si="6"/>
         <v>394</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>29</v>
+        <v>324</v>
       </c>
       <c r="C396" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D396" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E396" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397">
         <f t="shared" si="6"/>
         <v>395</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>31</v>
+        <v>325</v>
       </c>
       <c r="C397">
         <v>545</v>
@@ -6400,13 +7244,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398">
         <f t="shared" si="6"/>
         <v>396</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>32</v>
+        <v>326</v>
       </c>
       <c r="C398">
         <v>50</v>
@@ -6418,40 +7262,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399">
         <f t="shared" si="6"/>
         <v>397</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400">
         <f t="shared" si="6"/>
         <v>398</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>29</v>
+        <v>324</v>
       </c>
       <c r="C400" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D400" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E400" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401">
         <f t="shared" si="6"/>
         <v>399</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>31</v>
+        <v>325</v>
       </c>
       <c r="C401">
         <v>545</v>
@@ -6463,13 +7307,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>32</v>
+        <v>326</v>
       </c>
       <c r="C402">
         <v>50</v>
@@ -6481,20 +7325,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403">
         <f t="shared" si="6"/>
         <v>401</v>
       </c>
       <c r="B403" s="1"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404">
         <f t="shared" si="6"/>
         <v>402</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>35</v>
+        <v>328</v>
       </c>
       <c r="C404" t="s">
         <v>10</v>
@@ -6506,13 +7350,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405">
         <f t="shared" si="6"/>
         <v>403</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>36</v>
+        <v>329</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -6524,13 +7368,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406">
         <f t="shared" si="6"/>
         <v>404</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>37</v>
+        <v>330</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -6542,47 +7386,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407">
         <f t="shared" si="6"/>
         <v>405</v>
       </c>
       <c r="B407" s="1"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408">
         <f t="shared" si="6"/>
         <v>406</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409">
         <f t="shared" si="6"/>
         <v>407</v>
       </c>
       <c r="B409" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C409" t="s">
         <v>12</v>
       </c>
-      <c r="C409" t="s">
-        <v>13</v>
-      </c>
       <c r="D409" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E409" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410">
         <f t="shared" si="6"/>
         <v>408</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>14</v>
+        <v>332</v>
       </c>
       <c r="C410">
         <v>76</v>
@@ -6594,13 +7438,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411">
         <f t="shared" si="6"/>
         <v>409</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>15</v>
+        <v>333</v>
       </c>
       <c r="C411">
         <v>-22</v>
@@ -6612,13 +7456,13 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412">
         <f t="shared" si="6"/>
         <v>410</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>16</v>
+        <v>334</v>
       </c>
       <c r="C412">
         <v>550000</v>
@@ -6630,31 +7474,31 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413">
         <f t="shared" si="6"/>
         <v>411</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>17</v>
+        <v>335</v>
       </c>
       <c r="C413">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D413">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E413">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414">
         <f t="shared" si="6"/>
         <v>412</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>18</v>
+        <v>336</v>
       </c>
       <c r="C414">
         <v>10</v>
@@ -6666,47 +7510,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415">
         <f t="shared" si="6"/>
         <v>413</v>
       </c>
       <c r="B415" s="1"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416">
         <f t="shared" si="6"/>
         <v>414</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417">
         <f t="shared" si="6"/>
         <v>415</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="C417" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D417" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E417" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418">
         <f t="shared" si="6"/>
         <v>416</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>22</v>
+        <v>339</v>
       </c>
       <c r="C418">
         <v>30</v>
@@ -6718,31 +7562,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419">
         <f t="shared" si="6"/>
         <v>417</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>23</v>
+        <v>340</v>
       </c>
       <c r="C419" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D419" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E419" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420">
         <f t="shared" si="6"/>
         <v>418</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>22</v>
+        <v>339</v>
       </c>
       <c r="C420">
         <v>5</v>
@@ -6754,56 +7598,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421">
         <f t="shared" si="6"/>
         <v>419</v>
       </c>
       <c r="B421" s="1"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422">
         <f t="shared" si="6"/>
         <v>420</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423">
         <f t="shared" si="6"/>
         <v>421</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424">
         <f t="shared" si="6"/>
         <v>422</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>29</v>
+        <v>343</v>
       </c>
       <c r="C424" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D424" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E424" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425">
         <f t="shared" si="6"/>
         <v>423</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>31</v>
+        <v>344</v>
       </c>
       <c r="C425">
         <v>545</v>
@@ -6815,13 +7659,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426">
         <f t="shared" si="6"/>
         <v>424</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>32</v>
+        <v>345</v>
       </c>
       <c r="C426">
         <v>50</v>
@@ -6833,40 +7677,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427">
         <f t="shared" si="6"/>
         <v>425</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428">
         <f t="shared" si="6"/>
         <v>426</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>29</v>
+        <v>343</v>
       </c>
       <c r="C428" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D428" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E428" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429">
         <f t="shared" si="6"/>
         <v>427</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>31</v>
+        <v>344</v>
       </c>
       <c r="C429">
         <v>545</v>
@@ -6878,13 +7722,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430">
         <f t="shared" si="6"/>
         <v>428</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>32</v>
+        <v>345</v>
       </c>
       <c r="C430">
         <v>50</v>
@@ -6896,20 +7740,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431">
         <f t="shared" si="6"/>
         <v>429</v>
       </c>
       <c r="B431" s="1"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432">
         <f t="shared" si="6"/>
         <v>430</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>35</v>
+        <v>347</v>
       </c>
       <c r="C432" t="s">
         <v>10</v>
@@ -6921,13 +7765,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433">
         <f t="shared" si="6"/>
         <v>431</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>36</v>
+        <v>348</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -6939,13 +7783,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434">
         <f t="shared" si="6"/>
         <v>432</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>37</v>
+        <v>349</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -6957,28 +7801,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435">
         <f t="shared" si="6"/>
         <v>433</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436">
         <f t="shared" si="6"/>
         <v>434</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437">
         <f t="shared" si="6"/>
         <v>435</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C437">
         <v>5000</v>
@@ -6990,13 +7834,13 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438">
         <f t="shared" si="6"/>
         <v>436</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C438">
         <v>10</v>
@@ -7008,13 +7852,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439">
         <f t="shared" si="6"/>
         <v>437</v>
       </c>
       <c r="B439" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C439">
         <v>90</v>
@@ -7026,13 +7870,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440">
         <f t="shared" si="6"/>
         <v>438</v>
       </c>
       <c r="B440" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C440">
         <v>136</v>
@@ -7044,13 +7888,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441">
         <f t="shared" si="6"/>
         <v>439</v>
       </c>
       <c r="B441" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C441">
         <v>4</v>
@@ -7062,13 +7906,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442">
         <f t="shared" si="6"/>
         <v>440</v>
       </c>
       <c r="B442" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C442">
         <v>50</v>
@@ -7080,28 +7924,28 @@
         <v>50</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443">
         <f t="shared" si="6"/>
         <v>441</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444">
         <f t="shared" si="6"/>
         <v>442</v>
       </c>
       <c r="B444" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445">
         <f t="shared" si="6"/>
         <v>443</v>
       </c>
       <c r="B445" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C445">
         <v>50.43</v>
@@ -7113,13 +7957,13 @@
         <v>50.43</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446">
         <f t="shared" si="6"/>
         <v>444</v>
       </c>
       <c r="B446" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C446">
         <v>40</v>
@@ -7131,13 +7975,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447">
         <f t="shared" si="6"/>
         <v>445</v>
       </c>
       <c r="B447" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C447">
         <v>10</v>
@@ -7149,13 +7993,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448">
         <f t="shared" si="6"/>
         <v>446</v>
       </c>
       <c r="B448" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -7167,55 +8011,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449">
         <f t="shared" si="6"/>
         <v>447</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450">
         <f t="shared" si="6"/>
         <v>448</v>
       </c>
       <c r="B450" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451">
         <f t="shared" si="6"/>
         <v>449</v>
       </c>
       <c r="B451" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C451" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D451" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E451" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452">
         <f t="shared" si="6"/>
         <v>450</v>
       </c>
       <c r="B452" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453">
         <f t="shared" ref="A453:A473" si="7">A452+1</f>
         <v>451</v>
       </c>
       <c r="B453" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C453">
         <v>1.2</v>
@@ -7227,13 +8071,13 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454">
         <f t="shared" si="7"/>
         <v>452</v>
       </c>
-      <c r="B454">
-        <v>5</v>
+      <c r="B454" t="s">
+        <v>137</v>
       </c>
       <c r="C454">
         <v>9.4</v>
@@ -7245,13 +8089,13 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455">
         <f t="shared" si="7"/>
         <v>453</v>
       </c>
-      <c r="B455">
-        <v>6</v>
+      <c r="B455" t="s">
+        <v>138</v>
       </c>
       <c r="C455">
         <v>3.3</v>
@@ -7263,13 +8107,13 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456">
         <f t="shared" si="7"/>
         <v>454</v>
       </c>
-      <c r="B456">
-        <v>7</v>
+      <c r="B456" t="s">
+        <v>139</v>
       </c>
       <c r="C456">
         <v>1.2</v>
@@ -7281,13 +8125,13 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457">
         <f t="shared" si="7"/>
         <v>455</v>
       </c>
-      <c r="B457">
-        <v>8</v>
+      <c r="B457" t="s">
+        <v>140</v>
       </c>
       <c r="C457">
         <v>1.2</v>
@@ -7299,13 +8143,13 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458">
         <f t="shared" si="7"/>
         <v>456</v>
       </c>
-      <c r="B458">
-        <v>9</v>
+      <c r="B458" t="s">
+        <v>141</v>
       </c>
       <c r="C458">
         <v>68.900000000000006</v>
@@ -7317,13 +8161,13 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459">
         <f t="shared" si="7"/>
         <v>457</v>
       </c>
-      <c r="B459">
-        <v>10</v>
+      <c r="B459" t="s">
+        <v>142</v>
       </c>
       <c r="C459">
         <v>1.2</v>
@@ -7335,13 +8179,13 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460">
         <f t="shared" si="7"/>
         <v>458</v>
       </c>
-      <c r="B460">
-        <v>11</v>
+      <c r="B460" t="s">
+        <v>143</v>
       </c>
       <c r="C460">
         <v>1.2</v>
@@ -7353,13 +8197,13 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461">
         <f t="shared" si="7"/>
         <v>459</v>
       </c>
-      <c r="B461">
-        <v>12</v>
+      <c r="B461" t="s">
+        <v>144</v>
       </c>
       <c r="C461">
         <v>1.2</v>
@@ -7371,13 +8215,13 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462">
         <f t="shared" si="7"/>
         <v>460</v>
       </c>
-      <c r="B462">
-        <v>13</v>
+      <c r="B462" t="s">
+        <v>145</v>
       </c>
       <c r="C462">
         <f>100-SUM(C453:C461)</f>
@@ -7392,37 +8236,37 @@
         <v>11.199999999999989</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463">
         <f t="shared" si="7"/>
         <v>461</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464">
         <f t="shared" si="7"/>
         <v>462</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465">
         <f t="shared" si="7"/>
         <v>463</v>
       </c>
       <c r="B465" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466">
         <f t="shared" si="7"/>
         <v>464</v>
       </c>
       <c r="B466" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C466">
         <v>100</v>
@@ -7434,28 +8278,28 @@
         <v>100</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467">
         <f t="shared" si="7"/>
         <v>465</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468">
         <f t="shared" si="7"/>
         <v>466</v>
       </c>
       <c r="B468" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469">
         <f t="shared" si="7"/>
         <v>467</v>
       </c>
       <c r="B469" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C469" t="str">
         <f>CONCATENATE("demo",C2,".xls")</f>
@@ -7470,28 +8314,28 @@
         <v>demo3.xls</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470">
         <f t="shared" si="7"/>
         <v>468</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471">
         <f t="shared" si="7"/>
         <v>469</v>
       </c>
       <c r="B471" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472">
         <f t="shared" si="7"/>
         <v>470</v>
       </c>
       <c r="B472" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C472" t="str">
         <f>CONCATENATE("report_",C469)</f>
@@ -7506,13 +8350,13 @@
         <v>report_demo3.xls</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473">
         <f t="shared" si="7"/>
         <v>471</v>
       </c>
       <c r="B473" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
